--- a/prosym03_1962/3.xlsx
+++ b/prosym03_1962/3.xlsx
@@ -502,7 +502,7 @@
     <t>E-42</t>
   </si>
   <si>
-    <t>記号操作と定理の機械的証明(LISPに関する綜合報告)</t>
+    <t>記号操作と定理の機械的証明 (LISPに関する綜合報告)</t>
   </si>
   <si>
     <t>電気通信研究所電子応用研究室</t>
